--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H2">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I2">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J2">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>358.18413957022</v>
+        <v>40.37601439586056</v>
       </c>
       <c r="R2">
-        <v>3223.65725613198</v>
+        <v>363.384129562745</v>
       </c>
       <c r="S2">
-        <v>0.04776883806325754</v>
+        <v>0.00448196716506411</v>
       </c>
       <c r="T2">
-        <v>0.04776883806325755</v>
+        <v>0.00448196716506411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H3">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I3">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J3">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>879.8992552155757</v>
+        <v>602.0918374008343</v>
       </c>
       <c r="R3">
-        <v>7919.093296940181</v>
+        <v>5418.826536607508</v>
       </c>
       <c r="S3">
-        <v>0.1173468068262516</v>
+        <v>0.0668356172832235</v>
       </c>
       <c r="T3">
-        <v>0.1173468068262516</v>
+        <v>0.06683561728322349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H4">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I4">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J4">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>451.103372499595</v>
+        <v>228.5495199038217</v>
       </c>
       <c r="R4">
-        <v>4059.930352496355</v>
+        <v>2056.945679134395</v>
       </c>
       <c r="S4">
-        <v>0.06016091046515475</v>
+        <v>0.02537029618022709</v>
       </c>
       <c r="T4">
-        <v>0.06016091046515477</v>
+        <v>0.02537029618022709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I5">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J5">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>408.1133517532759</v>
+        <v>67.23077369080944</v>
       </c>
       <c r="R5">
-        <v>3673.020165779483</v>
+        <v>605.076963217285</v>
       </c>
       <c r="S5">
-        <v>0.05442759312220633</v>
+        <v>0.00746299813571883</v>
       </c>
       <c r="T5">
-        <v>0.05442759312220635</v>
+        <v>0.007462998135718829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I6">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J6">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>1002.553141191894</v>
@@ -818,10 +818,10 @@
         <v>9022.978270727044</v>
       </c>
       <c r="S6">
-        <v>0.1337044088799388</v>
+        <v>0.1112890989189519</v>
       </c>
       <c r="T6">
-        <v>0.1337044088799388</v>
+        <v>0.1112890989189519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I7">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J7">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>513.985095931151</v>
+        <v>380.5616101467483</v>
       </c>
       <c r="R7">
-        <v>4625.865863380359</v>
+        <v>3425.054491320735</v>
       </c>
       <c r="S7">
-        <v>0.068547063094204</v>
+        <v>0.04224450249692113</v>
       </c>
       <c r="T7">
-        <v>0.06854706309420401</v>
+        <v>0.04224450249692113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H8">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I8">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J8">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>823.677723835104</v>
+        <v>309.9844770584372</v>
       </c>
       <c r="R8">
-        <v>7413.099514515936</v>
+        <v>2789.860293525935</v>
       </c>
       <c r="S8">
-        <v>0.1098488834636913</v>
+        <v>0.034410039441583</v>
       </c>
       <c r="T8">
-        <v>0.1098488834636914</v>
+        <v>0.034410039441583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H9">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I9">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J9">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>2023.410128125131</v>
+        <v>4622.524688246245</v>
       </c>
       <c r="R9">
-        <v>18210.69115312618</v>
+        <v>41602.72219421621</v>
       </c>
       <c r="S9">
-        <v>0.2698498902322717</v>
+        <v>0.5131265228234598</v>
       </c>
       <c r="T9">
-        <v>0.2698498902322718</v>
+        <v>0.5131265228234598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H10">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I10">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J10">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>1037.354137234104</v>
+        <v>1754.675503994432</v>
       </c>
       <c r="R10">
-        <v>9336.187235106936</v>
+        <v>15792.07953594988</v>
       </c>
       <c r="S10">
-        <v>0.1383456058530239</v>
+        <v>0.1947789575548506</v>
       </c>
       <c r="T10">
-        <v>0.1383456058530239</v>
+        <v>0.1947789575548506</v>
       </c>
     </row>
   </sheetData>
